--- a/data/trans_dic/P15-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P15-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,98; 10,02</t>
+          <t>5,03; 9,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,37; 11,11</t>
+          <t>5,15; 10,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,11; 7,8</t>
+          <t>3,15; 7,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,1; 6,97</t>
+          <t>3,09; 7,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,17; 8,72</t>
+          <t>3,05; 8,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,12; 9,21</t>
+          <t>3,06; 9,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,68; 8,77</t>
+          <t>3,77; 8,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,64; 7,06</t>
+          <t>3,88; 6,95</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,89; 8,31</t>
+          <t>4,75; 8,44</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,87; 9,19</t>
+          <t>4,89; 9,21</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,87; 7,16</t>
+          <t>3,89; 7,5</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,77; 6,36</t>
+          <t>3,8; 6,3</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,71; 10,46</t>
+          <t>4,51; 10,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,31; 10,71</t>
+          <t>5,52; 10,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,68; 6,98</t>
+          <t>2,74; 7,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,55; 8,43</t>
+          <t>3,45; 8,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,66; 5,81</t>
+          <t>1,58; 5,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,06; 11,69</t>
+          <t>5,02; 11,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,59; 8,77</t>
+          <t>3,6; 9,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,27; 8,11</t>
+          <t>4,33; 8,16</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,7; 7,22</t>
+          <t>3,64; 7,09</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,01; 10,06</t>
+          <t>5,89; 9,88</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,77; 7,18</t>
+          <t>3,71; 7,05</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,35; 7,49</t>
+          <t>4,41; 7,47</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,53; 11,44</t>
+          <t>6,7; 11,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,4; 12,55</t>
+          <t>7,12; 12,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,27; 8,69</t>
+          <t>4,12; 8,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,8; 8,94</t>
+          <t>1,75; 8,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,15; 6,68</t>
+          <t>1,07; 6,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,73; 10,5</t>
+          <t>3,47; 9,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,73; 10,57</t>
+          <t>2,8; 10,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,41; 10,73</t>
+          <t>4,59; 10,89</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,53; 9,68</t>
+          <t>5,62; 9,66</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,69; 10,5</t>
+          <t>6,87; 10,92</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,36; 8,0</t>
+          <t>4,32; 7,98</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,33; 8,18</t>
+          <t>2,08; 8,46</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,5; 8,44</t>
+          <t>5,52; 8,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,75; 9,88</t>
+          <t>6,71; 10,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,96; 6,52</t>
+          <t>3,96; 6,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,87; 7,92</t>
+          <t>4,93; 8,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,39; 8,04</t>
+          <t>4,53; 8,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,82; 8,28</t>
+          <t>4,79; 8,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,39; 6,53</t>
+          <t>3,37; 6,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,31; 6,95</t>
+          <t>2,7; 7,21</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,5; 7,73</t>
+          <t>5,45; 7,73</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,43; 8,95</t>
+          <t>6,46; 8,93</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,06; 6,02</t>
+          <t>3,97; 5,97</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,95; 7,16</t>
+          <t>4,08; 7,1</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,53; 8,63</t>
+          <t>3,85; 8,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,41; 10,29</t>
+          <t>5,57; 10,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,9; 9,19</t>
+          <t>4,9; 8,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,79; 11,69</t>
+          <t>5,67; 11,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,66; 8,75</t>
+          <t>4,6; 8,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,97; 9,89</t>
+          <t>5,96; 9,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,94; 7,37</t>
+          <t>3,94; 7,3</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,47; 8,04</t>
+          <t>4,57; 8,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,85; 7,99</t>
+          <t>4,73; 7,86</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6,34; 9,24</t>
+          <t>6,26; 9,19</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4,76; 7,41</t>
+          <t>4,78; 7,36</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,53; 8,5</t>
+          <t>5,4; 8,54</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,88; 13,85</t>
+          <t>6,68; 13,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,24; 14,25</t>
+          <t>6,87; 14,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,91; 14,45</t>
+          <t>7,17; 14,99</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,67; 13,53</t>
+          <t>1,51; 11,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,93; 6,32</t>
+          <t>3,95; 6,36</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,62; 9,92</t>
+          <t>6,69; 10,17</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,22; 7,16</t>
+          <t>4,23; 7,25</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,79; 7,83</t>
+          <t>4,86; 8,09</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,86; 7,29</t>
+          <t>4,83; 7,16</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>6,82; 9,88</t>
+          <t>7,0; 9,99</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>5,28; 8,14</t>
+          <t>5,21; 8,19</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,58; 8,05</t>
+          <t>4,41; 7,9</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,54; 8,37</t>
+          <t>6,46; 8,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,46; 9,41</t>
+          <t>7,43; 9,44</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,12; 6,79</t>
+          <t>5,12; 6,75</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,45; 6,87</t>
+          <t>4,48; 6,95</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,51; 5,99</t>
+          <t>4,48; 5,96</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,32; 8,14</t>
+          <t>6,43; 8,21</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,71; 6,26</t>
+          <t>4,67; 6,24</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,83; 6,61</t>
+          <t>4,72; 6,67</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,69; 6,87</t>
+          <t>5,72; 6,9</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>7,19; 8,54</t>
+          <t>7,21; 8,52</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>5,11; 6,27</t>
+          <t>5,09; 6,21</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>4,93; 6,5</t>
+          <t>5,02; 6,51</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>34167</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>33962</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>21536</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>23836</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>15937</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>17329</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>20070</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>23209</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>50105</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>51291</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>41606</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>47045</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>23843; 47119</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>22497; 47538</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>13496; 32507</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>15609; 36869</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>9368; 25056</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>9608; 28862</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>13080; 31091</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>17353; 31084</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>37093; 65840</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>36761; 69224</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>30217; 58247</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>36163; 60007</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>25816</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>32446</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>16860</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>24147</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>11688</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>26855</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>22086</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>23159</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>37505</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>59302</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>38946</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>47306</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>16540; 37629</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>23109; 45361</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>10327; 26488</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>15601; 38114</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>5867; 19654</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>16975; 38374</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>13393; 34000</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>16562; 31219</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>26927; 52394</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>44568; 74806</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>27801; 52874</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>36821; 62354</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>47604</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>59797</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>31067</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>33340</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>4957</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>16057</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>9985</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>11999</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>52562</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>75854</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>41053</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>45339</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>36365; 63071</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>44787; 76327</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>21506; 44672</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>11686; 59823</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1792; 10775</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>9032; 24692</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4657; 17751</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>7666; 18175</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>39924; 68587</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>61117; 97122</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>29733; 54894</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>17399; 70629</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>84425</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>95620</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>58992</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>66489</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>43408</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>48679</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>38465</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>49504</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>127833</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>144299</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>97457</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>115993</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>68360; 103921</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>77820; 115875</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>45533; 73762</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>50973; 85812</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>32371; 59473</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>36752; 64466</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>27862; 52227</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>26393; 70531</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>106409; 150905</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>124493; 172013</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>78386; 118033</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>82058; 142881</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>20672</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>39263</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>41583</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>38308</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>36529</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>58226</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>40411</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>53125</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>57201</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>97489</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>81994</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>91434</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>13484; 31382</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>28438; 53045</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>30442; 55178</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>26927; 54345</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>26156; 51034</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>45373; 75566</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>29061; 53893</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>38433; 68192</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>43480; 72284</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>79591; 116940</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>64974; 100005</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>71144; 112483</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>29315</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>26825</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>29596</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>11729</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>62870</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>90325</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>60435</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>46641</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>92185</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>117150</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>90031</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>58370</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>19906; 40107</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>18332; 37589</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>20588; 43031</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>3639; 26763</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>49292; 79374</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>74204; 112858</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>45723; 78447</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>36981; 61586</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>74654; 110725</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>96311; 137465</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>71360; 112117</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>44197; 79157</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>351</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>517</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>241999</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>287913</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>199634</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>197850</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>175391</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>257472</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>191453</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>207636</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>417390</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>545385</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>391087</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>405487</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>211182; 272253</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>254285; 323061</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>173441; 228587</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>151160; 234743</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>151361; 201265</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>228344; 291435</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>164823; 220268</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>169038; 238465</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>380318; 458723</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>502619; 594332</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>351923; 429511</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>348897; 453014</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P15-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P15-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
